--- a/predictions полгода до/прогнозы_SARIMA_111.xlsx
+++ b/predictions полгода до/прогнозы_SARIMA_111.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M77"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,40 +446,40 @@
         </is>
       </c>
       <c r="B1" s="2" t="n">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="C1" s="2" t="n">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="D1" s="2" t="n">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="E1" s="2" t="n">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="F1" s="2" t="n">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="G1" s="2" t="n">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="H1" s="2" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="I1" s="2" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="J1" s="2" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="K1" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="L1" s="2" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="M1" s="2" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
     </row>
     <row r="2">
@@ -489,40 +489,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22659731.71194707</v>
+        <v>22199435.17022374</v>
       </c>
       <c r="C2" t="n">
-        <v>24700948.72278536</v>
+        <v>21788631.51002553</v>
       </c>
       <c r="D2" t="n">
-        <v>23331660.53506568</v>
+        <v>20907048.08483553</v>
       </c>
       <c r="E2" t="n">
-        <v>21012731.57984009</v>
+        <v>23096384.30324464</v>
       </c>
       <c r="F2" t="n">
-        <v>24407971.34119743</v>
+        <v>23619625.38205185</v>
       </c>
       <c r="G2" t="n">
-        <v>24617712.10288997</v>
+        <v>20093795.57837637</v>
       </c>
       <c r="H2" t="n">
-        <v>21013512.40085232</v>
+        <v>24138994.35080121</v>
       </c>
       <c r="I2" t="n">
-        <v>25696671.02916873</v>
+        <v>24618828.52799042</v>
       </c>
       <c r="J2" t="n">
-        <v>25479063.68634579</v>
+        <v>23380248.79162192</v>
       </c>
       <c r="K2" t="n">
-        <v>24247980.21190452</v>
+        <v>21447214.88805046</v>
       </c>
       <c r="L2" t="n">
-        <v>21631374.42333256</v>
+        <v>23154550.64860093</v>
       </c>
       <c r="M2" t="n">
-        <v>24182674.62095427</v>
+        <v>23177742.65907761</v>
       </c>
     </row>
     <row r="3">
@@ -532,3222 +532,2104 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9294275.408692764</v>
+        <v>7895521.46482507</v>
       </c>
       <c r="C3" t="n">
-        <v>8716230.727393819</v>
+        <v>8642100.695987863</v>
       </c>
       <c r="D3" t="n">
-        <v>10195399.39064908</v>
+        <v>10033420.45788068</v>
       </c>
       <c r="E3" t="n">
-        <v>11297241.21980974</v>
+        <v>10782871.58876629</v>
       </c>
       <c r="F3" t="n">
-        <v>12161573.78669591</v>
+        <v>14601156.38551092</v>
       </c>
       <c r="G3" t="n">
-        <v>15934063.14691413</v>
+        <v>10653275.70476556</v>
       </c>
       <c r="H3" t="n">
-        <v>12004521.4311841</v>
+        <v>11327001.07134441</v>
       </c>
       <c r="I3" t="n">
-        <v>12670868.90353271</v>
+        <v>21088828.2709888</v>
       </c>
       <c r="J3" t="n">
-        <v>22435678.0448891</v>
+        <v>13956208.36037418</v>
       </c>
       <c r="K3" t="n">
-        <v>15301847.35084039</v>
+        <v>18236493.2474977</v>
       </c>
       <c r="L3" t="n">
-        <v>19582626.09769094</v>
+        <v>15498723.75291466</v>
       </c>
       <c r="M3" t="n">
-        <v>16844654.27235251</v>
+        <v>14156289.19804923</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>ИПР Актобе (Kz)</t>
+          <t>Отдел Ковригин  (Kz)</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4767848.171532733</v>
+        <v>13606931.09266862</v>
       </c>
       <c r="C4" t="n">
-        <v>3664228.07893711</v>
+        <v>16246464.6501225</v>
       </c>
       <c r="D4" t="n">
-        <v>5516223.869835013</v>
+        <v>17347570.43014457</v>
       </c>
       <c r="E4" t="n">
-        <v>5794152.253210051</v>
+        <v>17646403.20639458</v>
       </c>
       <c r="F4" t="n">
-        <v>5355075.740283648</v>
+        <v>18089591.99316784</v>
       </c>
       <c r="G4" t="n">
-        <v>5193630.798387922</v>
+        <v>17826039.94448444</v>
       </c>
       <c r="H4" t="n">
-        <v>4701121.962082945</v>
+        <v>17784697.51914487</v>
       </c>
       <c r="I4" t="n">
-        <v>4367158.785162111</v>
+        <v>17094510.86382189</v>
       </c>
       <c r="J4" t="n">
-        <v>3292886.639289097</v>
+        <v>17811043.94843271</v>
       </c>
       <c r="K4" t="n">
-        <v>4154193.724771502</v>
+        <v>17850175.26583834</v>
       </c>
       <c r="L4" t="n">
-        <v>3709666.690768206</v>
+        <v>18700504.40522102</v>
       </c>
       <c r="M4" t="n">
-        <v>3665452.803821131</v>
+        <v>19655271.18956636</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>ИПР Павлодар (Kz)</t>
+          <t>Отдел Концевой</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>19882974.40966292</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>21618282.22190782</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>21818499.03056781</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>24084205.95096888</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>43090254.57485474</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>14859824.66394709</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>25964655.93999885</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>24855322.17659647</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>27789817.53991432</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>31178956.1955541</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>30586216.55705344</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>30087790.97509127</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>ИПР Апатиты</t>
+          <t>Отдел Мараев (АлРоса)</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5145932.912213672</v>
+        <v>2597951.844151059</v>
       </c>
       <c r="C6" t="n">
-        <v>5413398.900008608</v>
+        <v>6102753.590191733</v>
       </c>
       <c r="D6" t="n">
-        <v>6572583.557769921</v>
+        <v>1894248.340730273</v>
       </c>
       <c r="E6" t="n">
-        <v>6871152.139223693</v>
+        <v>6354855.687085014</v>
       </c>
       <c r="F6" t="n">
-        <v>9931575.944202472</v>
+        <v>3647073.85768695</v>
       </c>
       <c r="G6" t="n">
-        <v>33707508.35766394</v>
+        <v>2606093.223217491</v>
       </c>
       <c r="H6" t="n">
-        <v>4577627.248414028</v>
+        <v>8267918.782178946</v>
       </c>
       <c r="I6" t="n">
-        <v>9807996.399119923</v>
+        <v>9766928.20771482</v>
       </c>
       <c r="J6" t="n">
-        <v>7323725.460091109</v>
+        <v>5159679.811728321</v>
       </c>
       <c r="K6" t="n">
-        <v>8010000.705217823</v>
+        <v>8703138.177430334</v>
       </c>
       <c r="L6" t="n">
-        <v>15814266.2418098</v>
+        <v>2751813.060490155</v>
       </c>
       <c r="M6" t="n">
-        <v>10460403.40093749</v>
+        <v>7208008.9841021</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>ИПР Балаково</t>
+          <t>Отдел Мищенко (МетИнв)</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2253270.353380507</v>
+        <v>8524116.753269643</v>
       </c>
       <c r="C7" t="n">
-        <v>2537098.06523134</v>
+        <v>8112202.625271196</v>
       </c>
       <c r="D7" t="n">
-        <v>2892127.237756304</v>
+        <v>9637565.303504148</v>
       </c>
       <c r="E7" t="n">
-        <v>2555486.476740754</v>
+        <v>7892614.683875095</v>
       </c>
       <c r="F7" t="n">
-        <v>2837347.959217625</v>
+        <v>8507521.625580156</v>
       </c>
       <c r="G7" t="n">
-        <v>4144898.334861649</v>
+        <v>7880328.928798472</v>
       </c>
       <c r="H7" t="n">
-        <v>1301706.369281459</v>
+        <v>9407610.811856292</v>
       </c>
       <c r="I7" t="n">
-        <v>3038524.220174891</v>
+        <v>10449763.31953497</v>
       </c>
       <c r="J7" t="n">
-        <v>2913072.729489527</v>
+        <v>9809568.001807801</v>
       </c>
       <c r="K7" t="n">
-        <v>3318818.707391212</v>
+        <v>9315310.03865777</v>
       </c>
       <c r="L7" t="n">
-        <v>2205802.16621854</v>
+        <v>8690788.655060807</v>
       </c>
       <c r="M7" t="n">
-        <v>4108522.969040987</v>
+        <v>10186397.61379397</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>ИПР Волхов ФСА</t>
+          <t>Отдел Попов</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1729772.764255</v>
+        <v>15730506.1543288</v>
       </c>
       <c r="C8" t="n">
-        <v>1553407.976767065</v>
+        <v>17644407.000786</v>
       </c>
       <c r="D8" t="n">
-        <v>1411225.957150332</v>
+        <v>17585744.05224472</v>
       </c>
       <c r="E8" t="n">
-        <v>1678491.179950954</v>
+        <v>17795446.00499031</v>
       </c>
       <c r="F8" t="n">
-        <v>2196318.859498822</v>
+        <v>24871504.80771807</v>
       </c>
       <c r="G8" t="n">
-        <v>1815824.024899054</v>
+        <v>13377321.9277103</v>
       </c>
       <c r="H8" t="n">
-        <v>1103488.64550966</v>
+        <v>21439014.26676223</v>
       </c>
       <c r="I8" t="n">
-        <v>1487493.843248379</v>
+        <v>21099894.95758466</v>
       </c>
       <c r="J8" t="n">
-        <v>1339456.723427822</v>
+        <v>22974740.41261533</v>
       </c>
       <c r="K8" t="n">
-        <v>1547522.049095644</v>
+        <v>22752244.57625099</v>
       </c>
       <c r="L8" t="n">
-        <v>1484957.516122862</v>
+        <v>22097513.79258075</v>
       </c>
       <c r="M8" t="n">
-        <v>1734599.465238534</v>
+        <v>21427759.50184589</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>ИПР Еврохим УКК</t>
+          <t>Отдел Филиппов</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3189008.526395211</v>
+        <v>27951354.91691179</v>
       </c>
       <c r="C9" t="n">
-        <v>2671358.583843566</v>
+        <v>26036180.78916963</v>
       </c>
       <c r="D9" t="n">
-        <v>3154693.225373218</v>
+        <v>25564255.5407345</v>
       </c>
       <c r="E9" t="n">
-        <v>2703399.104579821</v>
+        <v>25795923.07193011</v>
       </c>
       <c r="F9" t="n">
-        <v>3124776.688479299</v>
+        <v>35888738.39786656</v>
       </c>
       <c r="G9" t="n">
-        <v>2731332.457695161</v>
+        <v>22648108.98011487</v>
       </c>
       <c r="H9" t="n">
-        <v>3098695.052792887</v>
+        <v>21584444.44391113</v>
       </c>
       <c r="I9" t="n">
-        <v>3725586.87026386</v>
+        <v>27399242.15786709</v>
       </c>
       <c r="J9" t="n">
-        <v>5293483.566606598</v>
+        <v>27257842.48790617</v>
       </c>
       <c r="K9" t="n">
-        <v>5545402.8563809</v>
+        <v>30979883.32485502</v>
       </c>
       <c r="L9" t="n">
-        <v>7417799.282364645</v>
+        <v>33473284.38120272</v>
       </c>
       <c r="M9" t="n">
-        <v>5487498.155662984</v>
+        <v>32994349.39092542</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>ИПР Череповец ФСА</t>
+          <t>Отдел Шугай (Русал)</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3774574.001397443</v>
+        <v>28838758.39835238</v>
       </c>
       <c r="C10" t="n">
-        <v>4959006.214041143</v>
+        <v>33919153.49087847</v>
       </c>
       <c r="D10" t="n">
-        <v>5136595.510408328</v>
+        <v>38931818.57060315</v>
       </c>
       <c r="E10" t="n">
-        <v>4025598.836912853</v>
+        <v>44040158.11563348</v>
       </c>
       <c r="F10" t="n">
-        <v>4725920.1795631</v>
+        <v>48958220.4328678</v>
       </c>
       <c r="G10" t="n">
-        <v>7905269.940240469</v>
+        <v>54882400.53776741</v>
       </c>
       <c r="H10" t="n">
-        <v>2833305.082129891</v>
+        <v>60623796.97903052</v>
       </c>
       <c r="I10" t="n">
-        <v>4836569.620385403</v>
+        <v>66211793.33837395</v>
       </c>
       <c r="J10" t="n">
-        <v>5918299.33544217</v>
+        <v>70806302.47915809</v>
       </c>
       <c r="K10" t="n">
-        <v>6738684.512487138</v>
+        <v>74309698.76487395</v>
       </c>
       <c r="L10" t="n">
-        <v>6554538.42023331</v>
+        <v>80073578.75895686</v>
       </c>
       <c r="M10" t="n">
-        <v>5659168.640861075</v>
+        <v>84164345.57390979</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>ИПР Алроса</t>
+          <t>Отдел Ясиновер (УГМК)</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5806960.093284058</v>
+        <v>15012893.43178146</v>
       </c>
       <c r="C11" t="n">
-        <v>3171786.348599191</v>
+        <v>14748368.00243884</v>
       </c>
       <c r="D11" t="n">
-        <v>7450258.321517429</v>
+        <v>14422299.44451828</v>
       </c>
       <c r="E11" t="n">
-        <v>3543949.774612834</v>
+        <v>14582318.08160544</v>
       </c>
       <c r="F11" t="n">
-        <v>7341357.257522378</v>
+        <v>15499301.38780432</v>
       </c>
       <c r="G11" t="n">
-        <v>4484272.288611946</v>
+        <v>14755162.46345727</v>
       </c>
       <c r="H11" t="n">
-        <v>4252992.663063928</v>
+        <v>14524789.43302703</v>
       </c>
       <c r="I11" t="n">
-        <v>8007228.045610819</v>
+        <v>14576559.1323174</v>
       </c>
       <c r="J11" t="n">
-        <v>8175110.465218617</v>
+        <v>14805219.95930881</v>
       </c>
       <c r="K11" t="n">
-        <v>6337807.773515057</v>
+        <v>15525472.77006324</v>
       </c>
       <c r="L11" t="n">
-        <v>11158373.35658233</v>
+        <v>15618138.32699712</v>
       </c>
       <c r="M11" t="n">
-        <v>5468654.082109971</v>
+        <v>17657415.92126336</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>ИПР ММК</t>
+          <t>Менеджер ОРСТП 1</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>369381.0989499707</v>
+        <v>40925597.0195917</v>
       </c>
       <c r="C12" t="n">
-        <v>333956.2201088595</v>
+        <v>46014708.00048652</v>
       </c>
       <c r="D12" t="n">
-        <v>289864.1213241032</v>
+        <v>46073334.01048657</v>
       </c>
       <c r="E12" t="n">
-        <v>-62104.79324104922</v>
+        <v>47883508.61326</v>
       </c>
       <c r="F12" t="n">
-        <v>350622.9862364461</v>
+        <v>39238743.02573453</v>
       </c>
       <c r="G12" t="n">
-        <v>501109.9327250648</v>
+        <v>39016856.00211842</v>
       </c>
       <c r="H12" t="n">
-        <v>77031.26379726449</v>
+        <v>43081539.77139845</v>
       </c>
       <c r="I12" t="n">
-        <v>963333.9188527665</v>
+        <v>36817837.89840812</v>
       </c>
       <c r="J12" t="n">
-        <v>1838039.227691161</v>
+        <v>41719700.1635599</v>
       </c>
       <c r="K12" t="n">
-        <v>237177.8364111376</v>
+        <v>38994746.57611373</v>
       </c>
       <c r="L12" t="n">
-        <v>-202576.0482374357</v>
+        <v>43401684.67095158</v>
       </c>
       <c r="M12" t="n">
-        <v>-861672.4275133857</v>
+        <v>48155259.41317303</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>ИПР Лебединский ГОК</t>
+          <t>Менеджер ОРСТП 2</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2486769.607334494</v>
+        <v>47544248.53718069</v>
       </c>
       <c r="C13" t="n">
-        <v>1696719.626192781</v>
+        <v>48407095.23805089</v>
       </c>
       <c r="D13" t="n">
-        <v>2001954.253167352</v>
+        <v>53640253.50995667</v>
       </c>
       <c r="E13" t="n">
-        <v>2307995.601201133</v>
+        <v>47947372.19167385</v>
       </c>
       <c r="F13" t="n">
-        <v>1980721.063058329</v>
+        <v>42341016.74905702</v>
       </c>
       <c r="G13" t="n">
-        <v>2059181.406398971</v>
+        <v>42648306.30303267</v>
       </c>
       <c r="H13" t="n">
-        <v>2023372.820250049</v>
+        <v>44031003.11177538</v>
       </c>
       <c r="I13" t="n">
-        <v>1894679.506359938</v>
+        <v>39171648.92430532</v>
       </c>
       <c r="J13" t="n">
-        <v>2922668.793428781</v>
+        <v>42844176.13734585</v>
       </c>
       <c r="K13" t="n">
-        <v>2388707.724665761</v>
+        <v>38894751.65162221</v>
       </c>
       <c r="L13" t="n">
-        <v>3653895.986696851</v>
+        <v>43114867.38269377</v>
       </c>
       <c r="M13" t="n">
-        <v>2634895.150129714</v>
+        <v>48250772.09060781</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>ИПР Металлоинвест</t>
+          <t>ОПП Владивосток</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-417816.7109687565</v>
+        <v>3171602.238713775</v>
       </c>
       <c r="C14" t="n">
-        <v>-180677.2627154395</v>
+        <v>4213386.533396468</v>
       </c>
       <c r="D14" t="n">
-        <v>-438633.9629148898</v>
+        <v>5172373.471733458</v>
       </c>
       <c r="E14" t="n">
-        <v>404040.9884512571</v>
+        <v>6055143.496771189</v>
       </c>
       <c r="F14" t="n">
-        <v>-566523.2511925799</v>
+        <v>6867754.061057389</v>
       </c>
       <c r="G14" t="n">
-        <v>-328550.3316225397</v>
+        <v>7615781.192088839</v>
       </c>
       <c r="H14" t="n">
-        <v>-634766.512200254</v>
+        <v>8540690.921450932</v>
       </c>
       <c r="I14" t="n">
-        <v>373404.0949367438</v>
+        <v>9318570.043659195</v>
       </c>
       <c r="J14" t="n">
-        <v>1193693.37178996</v>
+        <v>9874072.786989111</v>
       </c>
       <c r="K14" t="n">
-        <v>559190.8323622692</v>
+        <v>10320105.03687489</v>
       </c>
       <c r="L14" t="n">
-        <v>-214400.8538459654</v>
+        <v>11452501.94896643</v>
       </c>
       <c r="M14" t="n">
-        <v>-281759.0771050546</v>
+        <v>13049939.90583279</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>ИПР Михайловский ГОК</t>
+          <t>ОПП Воронеж</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>3992882.326716524</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>3395366.886941815</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>3605584.979354064</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>4336178.969815383</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>3856635.789369964</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>3983559.684873132</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>4289229.806853779</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>4830459.642038884</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>5249578.395606625</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>3924402.443668312</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>4147800.758383795</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>3726523.540950934</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>ИПР ОЭМК</t>
+          <t>ОПП Казань+Чувашия</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1313638.150138471</v>
+        <v>8897455.274231132</v>
       </c>
       <c r="C16" t="n">
-        <v>1091567.857393008</v>
+        <v>15748727.89719504</v>
       </c>
       <c r="D16" t="n">
-        <v>1134849.120397923</v>
+        <v>14112975.93756648</v>
       </c>
       <c r="E16" t="n">
-        <v>1169220.390453586</v>
+        <v>17951635.6658918</v>
       </c>
       <c r="F16" t="n">
-        <v>1069709.994493226</v>
+        <v>16625333.65996122</v>
       </c>
       <c r="G16" t="n">
-        <v>1986670.824466087</v>
+        <v>17327810.61846252</v>
       </c>
       <c r="H16" t="n">
-        <v>1252370.495838951</v>
+        <v>12812348.08716696</v>
       </c>
       <c r="I16" t="n">
-        <v>1894565.185294171</v>
+        <v>14053103.19820307</v>
       </c>
       <c r="J16" t="n">
-        <v>1798313.406292094</v>
+        <v>16486859.43512878</v>
       </c>
       <c r="K16" t="n">
-        <v>1889632.559031127</v>
+        <v>15131100.97164938</v>
       </c>
       <c r="L16" t="n">
-        <v>2297898.750806754</v>
+        <v>15780741.63369484</v>
       </c>
       <c r="M16" t="n">
-        <v>2121067.525512163</v>
+        <v>17220404.16511859</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>ИПР Уральская Сталь</t>
+          <t>ОПП Краснодар</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>8198469.046506735</v>
+        <v>5083909.927166814</v>
       </c>
       <c r="C17" t="n">
-        <v>7020938.589950329</v>
+        <v>5891229.581092838</v>
       </c>
       <c r="D17" t="n">
-        <v>8180487.771177411</v>
+        <v>5929019.827675285</v>
       </c>
       <c r="E17" t="n">
-        <v>6990977.365813317</v>
+        <v>6474227.251192253</v>
       </c>
       <c r="F17" t="n">
-        <v>7561024.1861381</v>
+        <v>6132544.372390563</v>
       </c>
       <c r="G17" t="n">
-        <v>7161849.564085001</v>
+        <v>5308364.491759427</v>
       </c>
       <c r="H17" t="n">
-        <v>7340664.792793235</v>
+        <v>6822179.831857611</v>
       </c>
       <c r="I17" t="n">
-        <v>10000359.78997901</v>
+        <v>5651984.424468158</v>
       </c>
       <c r="J17" t="n">
-        <v>11027589.81096891</v>
+        <v>5893371.229040433</v>
       </c>
       <c r="K17" t="n">
-        <v>10537659.96847357</v>
+        <v>5949597.319858125</v>
       </c>
       <c r="L17" t="n">
-        <v>14969399.70930222</v>
+        <v>6352659.190495087</v>
       </c>
       <c r="M17" t="n">
-        <v>11585153.24662563</v>
+        <v>6755195.8596039</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>ИПР Воркута</t>
+          <t>ОПП Красноярск</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1137757.599709511</v>
+        <v>3209458.008858717</v>
       </c>
       <c r="C18" t="n">
-        <v>508587.7981895218</v>
+        <v>3854851.857966182</v>
       </c>
       <c r="D18" t="n">
-        <v>1434372.438845644</v>
+        <v>3402013.78428511</v>
       </c>
       <c r="E18" t="n">
-        <v>1086539.806025856</v>
+        <v>3569740.087328902</v>
       </c>
       <c r="F18" t="n">
-        <v>1166027.66031345</v>
+        <v>3835976.943956649</v>
       </c>
       <c r="G18" t="n">
-        <v>4737048.161384064</v>
+        <v>3587812.321600879</v>
       </c>
       <c r="H18" t="n">
-        <v>316033.0573311043</v>
+        <v>4382264.85464652</v>
       </c>
       <c r="I18" t="n">
-        <v>1356031.027441677</v>
+        <v>3708999.868869364</v>
       </c>
       <c r="J18" t="n">
-        <v>1377391.453521411</v>
+        <v>3690957.173538894</v>
       </c>
       <c r="K18" t="n">
-        <v>1266040.079072071</v>
+        <v>4693077.882035794</v>
       </c>
       <c r="L18" t="n">
-        <v>841720.3693971086</v>
+        <v>4188100.669120879</v>
       </c>
       <c r="M18" t="n">
-        <v>1092993.845712867</v>
+        <v>3491324.850789557</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>ИПР Колпино СС</t>
+          <t>ОПП МСК Авто ( Юг)</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>38033.54224754522</v>
+        <v>6584502.144195039</v>
       </c>
       <c r="C19" t="n">
-        <v>-30813.20404129567</v>
+        <v>4989979.096378054</v>
       </c>
       <c r="D19" t="n">
-        <v>176487.3065851087</v>
+        <v>6256390.852869988</v>
       </c>
       <c r="E19" t="n">
-        <v>9343.062347954605</v>
+        <v>5412075.476259757</v>
       </c>
       <c r="F19" t="n">
-        <v>-54357.02465250481</v>
+        <v>6027303.444714363</v>
       </c>
       <c r="G19" t="n">
-        <v>54557.55791392461</v>
+        <v>3596858.583154846</v>
       </c>
       <c r="H19" t="n">
-        <v>-35409.16973455875</v>
+        <v>5031212.607534136</v>
       </c>
       <c r="I19" t="n">
-        <v>-7115.658394708338</v>
+        <v>6435316.436705249</v>
       </c>
       <c r="J19" t="n">
-        <v>96232.85733269851</v>
+        <v>4223668.109101924</v>
       </c>
       <c r="K19" t="n">
-        <v>-44786.00162446548</v>
+        <v>3735114.886602611</v>
       </c>
       <c r="L19" t="n">
-        <v>7715.741234743386</v>
+        <v>4402428.578600767</v>
       </c>
       <c r="M19" t="n">
-        <v>-67506.07452473076</v>
+        <v>5855443.157955421</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>ИПР Костомукша СС</t>
+          <t>ОПП МСК Пром (Север)</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2196615.033554393</v>
+        <v>2127670.255004527</v>
       </c>
       <c r="C20" t="n">
-        <v>2446565.321136657</v>
+        <v>2905209.752498992</v>
       </c>
       <c r="D20" t="n">
-        <v>2899376.620136091</v>
+        <v>3480762.825312265</v>
       </c>
       <c r="E20" t="n">
-        <v>2491824.205439161</v>
+        <v>3564127.624442828</v>
       </c>
       <c r="F20" t="n">
-        <v>2633264.59045515</v>
+        <v>2705948.439725446</v>
       </c>
       <c r="G20" t="n">
-        <v>3232066.695644609</v>
+        <v>2439978.504139176</v>
       </c>
       <c r="H20" t="n">
-        <v>1466769.526515458</v>
+        <v>3782425.455437562</v>
       </c>
       <c r="I20" t="n">
-        <v>2687407.664462741</v>
+        <v>4367104.320999069</v>
       </c>
       <c r="J20" t="n">
-        <v>2414137.427037708</v>
+        <v>1931904.031235952</v>
       </c>
       <c r="K20" t="n">
-        <v>2629386.729470938</v>
+        <v>2462969.024749291</v>
       </c>
       <c r="L20" t="n">
-        <v>2527175.875861978</v>
+        <v>3065712.033459681</v>
       </c>
       <c r="M20" t="n">
-        <v>2744673.964413503</v>
+        <v>2181858.990526368</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>ИПР Олкон</t>
+          <t>ОПП Мурманск</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2168452.864161354</v>
+        <v>4556722.345871761</v>
       </c>
       <c r="C21" t="n">
-        <v>1532201.015466583</v>
+        <v>4219325.45999593</v>
       </c>
       <c r="D21" t="n">
-        <v>1411236.143338772</v>
+        <v>5718836.586236992</v>
       </c>
       <c r="E21" t="n">
-        <v>2099405.883736842</v>
+        <v>5471670.712161422</v>
       </c>
       <c r="F21" t="n">
-        <v>1631052.228693968</v>
+        <v>5280226.199536546</v>
       </c>
       <c r="G21" t="n">
-        <v>1547657.0034238</v>
+        <v>4555452.617505371</v>
       </c>
       <c r="H21" t="n">
-        <v>1387728.212417747</v>
+        <v>4077621.839912036</v>
       </c>
       <c r="I21" t="n">
-        <v>2638669.852645443</v>
+        <v>4249532.886019582</v>
       </c>
       <c r="J21" t="n">
-        <v>1732095.189693675</v>
+        <v>4618922.8039356</v>
       </c>
       <c r="K21" t="n">
-        <v>2514632.26755639</v>
+        <v>4452774.78485812</v>
       </c>
       <c r="L21" t="n">
-        <v>3233596.199296008</v>
+        <v>5016631.662944789</v>
       </c>
       <c r="M21" t="n">
-        <v>1903701.672291285</v>
+        <v>4496352.400311287</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>ИПР Свеза</t>
+          <t>ОПП Нижний Новгород</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>451468.4801379588</v>
+        <v>11148304.60169953</v>
       </c>
       <c r="C22" t="n">
-        <v>436562.6340637924</v>
+        <v>13118741.21469294</v>
       </c>
       <c r="D22" t="n">
-        <v>439838.6926321121</v>
+        <v>14158891.68979198</v>
       </c>
       <c r="E22" t="n">
-        <v>686977.3657409782</v>
+        <v>13380233.92386508</v>
       </c>
       <c r="F22" t="n">
-        <v>3215647.142116241</v>
+        <v>13473357.46557925</v>
       </c>
       <c r="G22" t="n">
-        <v>4605110.532680959</v>
+        <v>11310526.84043827</v>
       </c>
       <c r="H22" t="n">
-        <v>4308504.601939866</v>
+        <v>11189492.61512507</v>
       </c>
       <c r="I22" t="n">
-        <v>2740330.194476247</v>
+        <v>12699518.26337432</v>
       </c>
       <c r="J22" t="n">
-        <v>4632450.684631607</v>
+        <v>14016718.07662177</v>
       </c>
       <c r="K22" t="n">
-        <v>3728400.093649689</v>
+        <v>12722193.6966087</v>
       </c>
       <c r="L22" t="n">
-        <v>2329007.601744414</v>
+        <v>15403012.44359847</v>
       </c>
       <c r="M22" t="n">
-        <v>1953007.621484361</v>
+        <v>13502864.01068908</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>ИПР Сегежа</t>
+          <t>ОПП НКЗ</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-620.4592782022321</v>
+        <v>13886537.92370613</v>
       </c>
       <c r="C23" t="n">
-        <v>-313.3754276513131</v>
+        <v>12004747.24125283</v>
       </c>
       <c r="D23" t="n">
-        <v>-465.3604062976256</v>
+        <v>10762083.5329102</v>
       </c>
       <c r="E23" t="n">
-        <v>2994.076127897413</v>
+        <v>9997195.898798771</v>
       </c>
       <c r="F23" t="n">
-        <v>21940.1136179092</v>
+        <v>9888065.251807354</v>
       </c>
       <c r="G23" t="n">
-        <v>881578.7403108291</v>
+        <v>7060044.361848176</v>
       </c>
       <c r="H23" t="n">
-        <v>-418.0616324942093</v>
+        <v>9682420.521552481</v>
       </c>
       <c r="I23" t="n">
-        <v>477576.0919786759</v>
+        <v>9424774.762603449</v>
       </c>
       <c r="J23" t="n">
-        <v>322143.4113299814</v>
+        <v>9154982.474695507</v>
       </c>
       <c r="K23" t="n">
-        <v>59132.65799370955</v>
+        <v>7877864.265520042</v>
       </c>
       <c r="L23" t="n">
-        <v>192381.1087062396</v>
+        <v>9461378.582756668</v>
       </c>
       <c r="M23" t="n">
-        <v>-414.9527242513141</v>
+        <v>9563386.928790003</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>ИПР Череповец СС</t>
+          <t>ОПП СПб Пром</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>14530805.26056041</v>
+        <v>8602342.602348797</v>
       </c>
       <c r="C24" t="n">
-        <v>12994108.64872343</v>
+        <v>9595015.152028522</v>
       </c>
       <c r="D24" t="n">
-        <v>13756251.60615155</v>
+        <v>9626265.757905412</v>
       </c>
       <c r="E24" t="n">
-        <v>13221768.47451376</v>
+        <v>10899569.67210182</v>
       </c>
       <c r="F24" t="n">
-        <v>13234574.73518195</v>
+        <v>14154640.92448062</v>
       </c>
       <c r="G24" t="n">
-        <v>16243958.90474946</v>
+        <v>8141459.865733345</v>
       </c>
       <c r="H24" t="n">
-        <v>11397629.16387563</v>
+        <v>10521730.67141011</v>
       </c>
       <c r="I24" t="n">
-        <v>14424322.58704037</v>
+        <v>11272355.23977707</v>
       </c>
       <c r="J24" t="n">
-        <v>16000916.12793215</v>
+        <v>11605021.91472116</v>
       </c>
       <c r="K24" t="n">
-        <v>15779463.17324823</v>
+        <v>9280215.325962525</v>
       </c>
       <c r="L24" t="n">
-        <v>15245361.39795088</v>
+        <v>10327080.58103672</v>
       </c>
       <c r="M24" t="n">
-        <v>15843828.26394288</v>
+        <v>11727739.58193218</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>ИПР Яковлевский СС</t>
+          <t>ОПП СПб Север Авто</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2454915.633457269</v>
+        <v>5026061.302685561</v>
       </c>
       <c r="C25" t="n">
-        <v>2677928.783428758</v>
+        <v>5873566.995382177</v>
       </c>
       <c r="D25" t="n">
-        <v>2517667.259081959</v>
+        <v>6045114.099864747</v>
       </c>
       <c r="E25" t="n">
-        <v>3977690.489106853</v>
+        <v>5747768.495709774</v>
       </c>
       <c r="F25" t="n">
-        <v>3441586.334392352</v>
+        <v>7262829.181906432</v>
       </c>
       <c r="G25" t="n">
-        <v>2903082.680920484</v>
+        <v>4423158.148691192</v>
       </c>
       <c r="H25" t="n">
-        <v>1665869.162847874</v>
+        <v>5613281.115111106</v>
       </c>
       <c r="I25" t="n">
-        <v>3128653.641168711</v>
+        <v>6393325.900367511</v>
       </c>
       <c r="J25" t="n">
-        <v>2913669.067679058</v>
+        <v>6220064.9830896</v>
       </c>
       <c r="K25" t="n">
-        <v>2694212.875680847</v>
+        <v>5040346.145262427</v>
       </c>
       <c r="L25" t="n">
-        <v>2610447.402136491</v>
+        <v>5554160.138603262</v>
       </c>
       <c r="M25" t="n">
-        <v>2432156.693682184</v>
+        <v>6024986.923178099</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>ИПР Нижний Тагил</t>
+          <t>ОПП СПб Юг Авто</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>11334268.14347333</v>
+        <v>11755852.13143801</v>
       </c>
       <c r="C26" t="n">
-        <v>11147660.10558671</v>
+        <v>12107396.78957899</v>
       </c>
       <c r="D26" t="n">
-        <v>10048213.22109362</v>
+        <v>12610735.05031228</v>
       </c>
       <c r="E26" t="n">
-        <v>10124760.19558194</v>
+        <v>11863319.69431452</v>
       </c>
       <c r="F26" t="n">
-        <v>9832666.128280245</v>
+        <v>13300923.82632005</v>
       </c>
       <c r="G26" t="n">
-        <v>11818044.17464181</v>
+        <v>11170821.64830325</v>
       </c>
       <c r="H26" t="n">
-        <v>9988669.374680609</v>
+        <v>14983476.98250926</v>
       </c>
       <c r="I26" t="n">
-        <v>10401574.69056876</v>
+        <v>12739578.16703325</v>
       </c>
       <c r="J26" t="n">
-        <v>12176535.50638919</v>
+        <v>9963566.234506346</v>
       </c>
       <c r="K26" t="n">
-        <v>13614992.69086409</v>
+        <v>11172209.08497051</v>
       </c>
       <c r="L26" t="n">
-        <v>13553539.52043528</v>
+        <v>10231573.06315014</v>
       </c>
       <c r="M26" t="n">
-        <v>14504555.71485716</v>
+        <v>10453691.89502218</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>ИПР НКЗ</t>
+          <t>ОПП Сургут</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>15623276.92039143</v>
+        <v>3814407.464665013</v>
       </c>
       <c r="C27" t="n">
-        <v>19638670.14157784</v>
+        <v>4517714.108926063</v>
       </c>
       <c r="D27" t="n">
-        <v>17826550.75598932</v>
+        <v>4397259.77845993</v>
       </c>
       <c r="E27" t="n">
-        <v>17515960.71163904</v>
+        <v>5050803.778028086</v>
       </c>
       <c r="F27" t="n">
-        <v>18611367.54804117</v>
+        <v>6655370.108669229</v>
       </c>
       <c r="G27" t="n">
-        <v>27409836.30290861</v>
+        <v>5007126.681825204</v>
       </c>
       <c r="H27" t="n">
-        <v>11584446.07982776</v>
+        <v>5978174.216401151</v>
       </c>
       <c r="I27" t="n">
-        <v>5363718.509298127</v>
+        <v>5842080.2146449</v>
       </c>
       <c r="J27" t="n">
-        <v>11129665.40673906</v>
+        <v>4781139.02704525</v>
       </c>
       <c r="K27" t="n">
-        <v>11325991.00573316</v>
+        <v>4983886.830684337</v>
       </c>
       <c r="L27" t="n">
-        <v>16560027.91353549</v>
+        <v>4824762.042634459</v>
       </c>
       <c r="M27" t="n">
-        <v>17215226.11114486</v>
+        <v>5791066.471726229</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>ИПР Русал</t>
+          <t>ОПП Хабаровск</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>13317788.20718004</v>
+        <v>12525705.95537931</v>
       </c>
       <c r="C28" t="n">
-        <v>13274049.49090926</v>
+        <v>10141277.20286862</v>
       </c>
       <c r="D28" t="n">
-        <v>13213617.25210694</v>
+        <v>9856204.123185864</v>
       </c>
       <c r="E28" t="n">
-        <v>13078408.93520365</v>
+        <v>12040828.90851222</v>
       </c>
       <c r="F28" t="n">
-        <v>13099311.34758463</v>
+        <v>14789551.72574253</v>
       </c>
       <c r="G28" t="n">
-        <v>12830009.82203482</v>
+        <v>10828812.53771821</v>
       </c>
       <c r="H28" t="n">
-        <v>13851942.90968837</v>
+        <v>15648837.5364101</v>
       </c>
       <c r="I28" t="n">
-        <v>14483680.27138971</v>
+        <v>15486174.8303735</v>
       </c>
       <c r="J28" t="n">
-        <v>14743808.24991725</v>
+        <v>13532714.30219008</v>
       </c>
       <c r="K28" t="n">
-        <v>13931704.46493557</v>
+        <v>12424195.89633504</v>
       </c>
       <c r="L28" t="n">
-        <v>12078333.81733991</v>
+        <v>14079797.03588684</v>
       </c>
       <c r="M28" t="n">
-        <v>12739739.12962327</v>
+        <v>17333774.4139505</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>ИПР УГМК</t>
+          <t>Магазин Владивосток</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>21583531.1572098</v>
+        <v>2362224.15610961</v>
       </c>
       <c r="C29" t="n">
-        <v>23230362.64644301</v>
+        <v>2435004.811537438</v>
       </c>
       <c r="D29" t="n">
-        <v>29585315.8958927</v>
+        <v>2351204.358811781</v>
       </c>
       <c r="E29" t="n">
-        <v>37373934.95879541</v>
+        <v>2563041.240663493</v>
       </c>
       <c r="F29" t="n">
-        <v>38397895.97558901</v>
+        <v>2712514.555798321</v>
       </c>
       <c r="G29" t="n">
-        <v>30089098.81470865</v>
+        <v>2565545.40469022</v>
       </c>
       <c r="H29" t="n">
-        <v>29412821.73674223</v>
+        <v>2718341.477782049</v>
       </c>
       <c r="I29" t="n">
-        <v>34933864.26637386</v>
+        <v>3102475.996489994</v>
       </c>
       <c r="J29" t="n">
-        <v>34950864.9828293</v>
+        <v>3370187.459006824</v>
       </c>
       <c r="K29" t="n">
-        <v>37636358.23030571</v>
+        <v>3379834.714532663</v>
       </c>
       <c r="L29" t="n">
-        <v>36244481.0835923</v>
+        <v>3795615.808930155</v>
       </c>
       <c r="M29" t="n">
-        <v>45922036.12954187</v>
+        <v>3759664.129536277</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Менеджер ОРСТП 1</t>
+          <t>Магазин Воронеж</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>51467456.17952212</v>
+        <v>673852.5320403491</v>
       </c>
       <c r="C30" t="n">
-        <v>47225565.36241578</v>
+        <v>843856.0714080781</v>
       </c>
       <c r="D30" t="n">
-        <v>53388863.01105507</v>
+        <v>772851.9396299059</v>
       </c>
       <c r="E30" t="n">
-        <v>52604901.60971907</v>
+        <v>812498.1853187729</v>
       </c>
       <c r="F30" t="n">
-        <v>54080763.33435068</v>
+        <v>1083622.956189316</v>
       </c>
       <c r="G30" t="n">
-        <v>45899893.95851812</v>
+        <v>929033.4629476864</v>
       </c>
       <c r="H30" t="n">
-        <v>45903429.76922299</v>
+        <v>990392.6486740471</v>
       </c>
       <c r="I30" t="n">
-        <v>49970475.91720981</v>
+        <v>855002.4023622496</v>
       </c>
       <c r="J30" t="n">
-        <v>44523851.44409751</v>
+        <v>1294711.993362496</v>
       </c>
       <c r="K30" t="n">
-        <v>47700452.15164052</v>
+        <v>1017262.31001942</v>
       </c>
       <c r="L30" t="n">
-        <v>44655764.12490389</v>
+        <v>897261.4108739854</v>
       </c>
       <c r="M30" t="n">
-        <v>49338209.29553985</v>
+        <v>1221316.430862145</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Менеджер ОРСТП 2</t>
+          <t>Магазин Казань / ПВЗ Казань</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>47432189.53046627</v>
+        <v>589827.6534635171</v>
       </c>
       <c r="C31" t="n">
-        <v>49553031.91166022</v>
+        <v>804401.0832169425</v>
       </c>
       <c r="D31" t="n">
-        <v>50240420.06576098</v>
+        <v>898999.6937197754</v>
       </c>
       <c r="E31" t="n">
-        <v>55774824.8752334</v>
+        <v>996775.7817365637</v>
       </c>
       <c r="F31" t="n">
-        <v>49941272.7145355</v>
+        <v>930484.0641859963</v>
       </c>
       <c r="G31" t="n">
-        <v>44446478.33749587</v>
+        <v>629129.0433679025</v>
       </c>
       <c r="H31" t="n">
-        <v>44651254.58867286</v>
+        <v>759330.0828952289</v>
       </c>
       <c r="I31" t="n">
-        <v>46185026.55045667</v>
+        <v>946816.9012441339</v>
       </c>
       <c r="J31" t="n">
-        <v>41375627.55029096</v>
+        <v>826560.1128982625</v>
       </c>
       <c r="K31" t="n">
-        <v>44945181.26061808</v>
+        <v>675871.154940189</v>
       </c>
       <c r="L31" t="n">
-        <v>40767344.29746428</v>
+        <v>776707.2920339742</v>
       </c>
       <c r="M31" t="n">
-        <v>45394603.12392719</v>
+        <v>675801.6368629409</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>ОПП Владивосток</t>
+          <t>Магазин Кемерово</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>707854.2725763894</v>
+        <v>1699948.378777136</v>
       </c>
       <c r="C32" t="n">
-        <v>741207.0383299841</v>
+        <v>2234020.249599853</v>
       </c>
       <c r="D32" t="n">
-        <v>735373.0744032857</v>
+        <v>2110597.637214907</v>
       </c>
       <c r="E32" t="n">
-        <v>736393.5335564925</v>
+        <v>1928388.980371007</v>
       </c>
       <c r="F32" t="n">
-        <v>736215.0379578829</v>
+        <v>2186563.818589281</v>
       </c>
       <c r="G32" t="n">
-        <v>736246.2598628683</v>
+        <v>1775350.003666815</v>
       </c>
       <c r="H32" t="n">
-        <v>736240.7986225996</v>
+        <v>1903207.935612512</v>
       </c>
       <c r="I32" t="n">
-        <v>972369.0724662088</v>
+        <v>2191252.664168519</v>
       </c>
       <c r="J32" t="n">
-        <v>1116271.661811651</v>
+        <v>2268801.137526832</v>
       </c>
       <c r="K32" t="n">
-        <v>1088324.126764435</v>
+        <v>2155001.541529194</v>
       </c>
       <c r="L32" t="n">
-        <v>997333.5402703979</v>
+        <v>2169356.508965821</v>
       </c>
       <c r="M32" t="n">
-        <v>1634759.60316602</v>
+        <v>2377265.462922271</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>ОПП Воронеж</t>
+          <t>Магазин Краснодар</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3793957.114444003</v>
+        <v>2687000.975480326</v>
       </c>
       <c r="C33" t="n">
-        <v>4496863.25742285</v>
+        <v>2394265.094338159</v>
       </c>
       <c r="D33" t="n">
-        <v>3786080.257760877</v>
+        <v>2876076.614278819</v>
       </c>
       <c r="E33" t="n">
-        <v>3960216.587075711</v>
+        <v>2624969.982245249</v>
       </c>
       <c r="F33" t="n">
-        <v>4651231.594996267</v>
+        <v>2596001.514556158</v>
       </c>
       <c r="G33" t="n">
-        <v>4191684.320776472</v>
+        <v>2149312.986390844</v>
       </c>
       <c r="H33" t="n">
-        <v>4322169.634446091</v>
+        <v>2736192.490328128</v>
       </c>
       <c r="I33" t="n">
-        <v>4632159.367955143</v>
+        <v>2715950.740041331</v>
       </c>
       <c r="J33" t="n">
-        <v>5154886.29876413</v>
+        <v>2504547.064472636</v>
       </c>
       <c r="K33" t="n">
-        <v>5596471.282166693</v>
+        <v>2768587.837775256</v>
       </c>
       <c r="L33" t="n">
-        <v>4304956.978780177</v>
+        <v>3109142.710960677</v>
       </c>
       <c r="M33" t="n">
-        <v>4511629.303601082</v>
+        <v>3425670.528195386</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>ОПП Казань+Чувашия</t>
+          <t>Магазин Красноярск 1</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>9465647.947191695</v>
+        <v>3240530.751867547</v>
       </c>
       <c r="C34" t="n">
-        <v>7669155.883357524</v>
+        <v>2502702.184958011</v>
       </c>
       <c r="D34" t="n">
-        <v>13743464.30913571</v>
+        <v>3295859.577741993</v>
       </c>
       <c r="E34" t="n">
-        <v>12676196.06940356</v>
+        <v>2897343.709514255</v>
       </c>
       <c r="F34" t="n">
-        <v>16223615.23289654</v>
+        <v>3297605.31889185</v>
       </c>
       <c r="G34" t="n">
-        <v>15105753.2817523</v>
+        <v>2930412.070498839</v>
       </c>
       <c r="H34" t="n">
-        <v>15713124.42877449</v>
+        <v>2812338.545014171</v>
       </c>
       <c r="I34" t="n">
-        <v>11163991.92930175</v>
+        <v>3017495.606585708</v>
       </c>
       <c r="J34" t="n">
-        <v>12420491.60470238</v>
+        <v>3034907.872385856</v>
       </c>
       <c r="K34" t="n">
-        <v>14839324.16771131</v>
+        <v>3255775.521528419</v>
       </c>
       <c r="L34" t="n">
-        <v>13418816.02068049</v>
+        <v>3334331.640980291</v>
       </c>
       <c r="M34" t="n">
-        <v>14153712.51385796</v>
+        <v>3179105.182605886</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>ОПП Краснодар</t>
+          <t>Магазин МСК 3</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>4554466.942713169</v>
+        <v>1686294.429780114</v>
       </c>
       <c r="C35" t="n">
-        <v>4910800.705440949</v>
+        <v>2116101.055341453</v>
       </c>
       <c r="D35" t="n">
-        <v>5747165.364082907</v>
+        <v>2562825.96159289</v>
       </c>
       <c r="E35" t="n">
-        <v>5772131.322606297</v>
+        <v>2366838.553853916</v>
       </c>
       <c r="F35" t="n">
-        <v>6328375.107730653</v>
+        <v>2283065.356581993</v>
       </c>
       <c r="G35" t="n">
-        <v>6008530.119867379</v>
+        <v>2120433.650722091</v>
       </c>
       <c r="H35" t="n">
-        <v>5169499.481268696</v>
+        <v>2709464.280076714</v>
       </c>
       <c r="I35" t="n">
-        <v>6715519.884376504</v>
+        <v>3194591.024336771</v>
       </c>
       <c r="J35" t="n">
-        <v>5493559.607496802</v>
+        <v>2712499.266054241</v>
       </c>
       <c r="K35" t="n">
-        <v>5709295.632422149</v>
+        <v>2608071.508166543</v>
       </c>
       <c r="L35" t="n">
-        <v>5794429.268359015</v>
+        <v>2683314.355571569</v>
       </c>
       <c r="M35" t="n">
-        <v>6220249.052305337</v>
+        <v>3430721.398560727</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>ОПП Красноярск</t>
+          <t>Магазин МСК Балашиха</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1969450.840835014</v>
+        <v>1253995.587993185</v>
       </c>
       <c r="C36" t="n">
-        <v>2639703.341315426</v>
+        <v>1062959.450940757</v>
       </c>
       <c r="D36" t="n">
-        <v>3241722.072167899</v>
+        <v>1679227.090158316</v>
       </c>
       <c r="E36" t="n">
-        <v>2739713.543752151</v>
+        <v>996522.6264140224</v>
       </c>
       <c r="F36" t="n">
-        <v>2876310.292352854</v>
+        <v>1062456.078839555</v>
       </c>
       <c r="G36" t="n">
-        <v>3062896.81325256</v>
+        <v>1289283.212396724</v>
       </c>
       <c r="H36" t="n">
-        <v>2789623.428726889</v>
+        <v>1715661.099683257</v>
       </c>
       <c r="I36" t="n">
-        <v>3591264.66236345</v>
+        <v>1503926.384599797</v>
       </c>
       <c r="J36" t="n">
-        <v>2888811.021941645</v>
+        <v>1665201.684036581</v>
       </c>
       <c r="K36" t="n">
-        <v>3000148.409681353</v>
+        <v>1518299.679072719</v>
       </c>
       <c r="L36" t="n">
-        <v>4026543.84709874</v>
+        <v>1827908.565129534</v>
       </c>
       <c r="M36" t="n">
-        <v>3318585.759706795</v>
+        <v>1646569.632709446</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>ОПП МСК Авто ( Юг)</t>
+          <t>Магазин МСК Кунцево</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>7803560.633153087</v>
+        <v>4631005.28187855</v>
       </c>
       <c r="C37" t="n">
-        <v>7592892.464604961</v>
+        <v>4049722.656679555</v>
       </c>
       <c r="D37" t="n">
-        <v>5779310.692409792</v>
+        <v>5170671.878466167</v>
       </c>
       <c r="E37" t="n">
-        <v>7161761.74530836</v>
+        <v>4349622.828255124</v>
       </c>
       <c r="F37" t="n">
-        <v>6128078.257179225</v>
+        <v>3897097.630854996</v>
       </c>
       <c r="G37" t="n">
-        <v>6749856.351283283</v>
+        <v>3479700.075152706</v>
       </c>
       <c r="H37" t="n">
-        <v>4624074.666087555</v>
+        <v>3646746.500294143</v>
       </c>
       <c r="I37" t="n">
-        <v>6100057.388213235</v>
+        <v>4999759.807644496</v>
       </c>
       <c r="J37" t="n">
-        <v>7510553.873384546</v>
+        <v>4333461.162036766</v>
       </c>
       <c r="K37" t="n">
-        <v>5148957.478202669</v>
+        <v>3840837.528001958</v>
       </c>
       <c r="L37" t="n">
-        <v>4758052.143937742</v>
+        <v>4019793.527193209</v>
       </c>
       <c r="M37" t="n">
-        <v>5502686.302692027</v>
+        <v>4708867.026081908</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>ОПП МСК Пром (Север)</t>
+          <t>Магазин Мурманск</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2470733.96906891</v>
+        <v>3767858.620457377</v>
       </c>
       <c r="C38" t="n">
-        <v>2166015.562360156</v>
+        <v>4640047.431760329</v>
       </c>
       <c r="D38" t="n">
-        <v>2983756.246367471</v>
+        <v>4154496.376195362</v>
       </c>
       <c r="E38" t="n">
-        <v>3705500.242658804</v>
+        <v>3576694.229588877</v>
       </c>
       <c r="F38" t="n">
-        <v>3771636.478876139</v>
+        <v>4236994.278884152</v>
       </c>
       <c r="G38" t="n">
-        <v>2905918.490836187</v>
+        <v>3102550.654424764</v>
       </c>
       <c r="H38" t="n">
-        <v>2530653.331208912</v>
+        <v>4062226.28136556</v>
       </c>
       <c r="I38" t="n">
-        <v>3944705.374872053</v>
+        <v>3774293.848778218</v>
       </c>
       <c r="J38" t="n">
-        <v>4691427.26657847</v>
+        <v>4090098.604823843</v>
       </c>
       <c r="K38" t="n">
-        <v>2052327.306019471</v>
+        <v>4549999.780935784</v>
       </c>
       <c r="L38" t="n">
-        <v>2572312.836254054</v>
+        <v>4151200.029543466</v>
       </c>
       <c r="M38" t="n">
-        <v>3097889.625044224</v>
+        <v>4383868.938027808</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>ОПП Мурманск</t>
+          <t>Магазин Нижневартовск</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>4127825.019263039</v>
+        <v>5159042.087594812</v>
       </c>
       <c r="C39" t="n">
-        <v>4521258.116500163</v>
+        <v>5479351.938257433</v>
       </c>
       <c r="D39" t="n">
-        <v>4162981.59452662</v>
+        <v>6060472.826385032</v>
       </c>
       <c r="E39" t="n">
-        <v>5653149.241069545</v>
+        <v>5012646.702999128</v>
       </c>
       <c r="F39" t="n">
-        <v>5428367.477301652</v>
+        <v>5178322.727239131</v>
       </c>
       <c r="G39" t="n">
-        <v>5199842.431145692</v>
+        <v>4782184.363704877</v>
       </c>
       <c r="H39" t="n">
-        <v>4495086.181939576</v>
+        <v>5071426.547206583</v>
       </c>
       <c r="I39" t="n">
-        <v>4000239.042502668</v>
+        <v>5599555.43946529</v>
       </c>
       <c r="J39" t="n">
-        <v>4155438.987177516</v>
+        <v>5915082.387405925</v>
       </c>
       <c r="K39" t="n">
-        <v>4502633.754402727</v>
+        <v>6061802.962945194</v>
       </c>
       <c r="L39" t="n">
-        <v>4348437.245164696</v>
+        <v>5978525.239512591</v>
       </c>
       <c r="M39" t="n">
-        <v>4901999.316386521</v>
+        <v>6219734.818753845</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>ОПП Нижний Новгород</t>
+          <t>Магазин НКЗ</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>12619212.86568005</v>
+        <v>5755847.030900136</v>
       </c>
       <c r="C40" t="n">
-        <v>11583967.30771995</v>
+        <v>5705090.682289952</v>
       </c>
       <c r="D40" t="n">
-        <v>13300604.90306027</v>
+        <v>6021096.76959723</v>
       </c>
       <c r="E40" t="n">
-        <v>14310465.22655329</v>
+        <v>5644743.080149791</v>
       </c>
       <c r="F40" t="n">
-        <v>13434930.38692331</v>
+        <v>5898302.634063095</v>
       </c>
       <c r="G40" t="n">
-        <v>13545891.95483692</v>
+        <v>5103703.228155582</v>
       </c>
       <c r="H40" t="n">
-        <v>11452670.45451426</v>
+        <v>5400248.049291887</v>
       </c>
       <c r="I40" t="n">
-        <v>11360731.36984198</v>
+        <v>6027442.421902195</v>
       </c>
       <c r="J40" t="n">
-        <v>12874684.54128415</v>
+        <v>6031413.795553328</v>
       </c>
       <c r="K40" t="n">
-        <v>14077270.40912433</v>
+        <v>5906425.178675855</v>
       </c>
       <c r="L40" t="n">
-        <v>12868964.49299443</v>
+        <v>6237785.965343455</v>
       </c>
       <c r="M40" t="n">
-        <v>15523458.44383707</v>
+        <v>6015030.93743182</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>ОПП НКЗ</t>
+          <t>Магазин НН Бурнаковский</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>9502790.996532967</v>
+        <v>3121762.465901364</v>
       </c>
       <c r="C41" t="n">
-        <v>13918455.6167637</v>
+        <v>3360039.143925268</v>
       </c>
       <c r="D41" t="n">
-        <v>12257200.66035251</v>
+        <v>3412776.978674537</v>
       </c>
       <c r="E41" t="n">
-        <v>10666547.18187289</v>
+        <v>3017931.916004247</v>
       </c>
       <c r="F41" t="n">
-        <v>9932039.018710759</v>
+        <v>3841511.614435364</v>
       </c>
       <c r="G41" t="n">
-        <v>9992064.594474429</v>
+        <v>3267744.674014193</v>
       </c>
       <c r="H41" t="n">
-        <v>7405105.3369407</v>
+        <v>2604719.346893814</v>
       </c>
       <c r="I41" t="n">
-        <v>9463234.725692034</v>
+        <v>3366410.839536184</v>
       </c>
       <c r="J41" t="n">
-        <v>9250715.369948005</v>
+        <v>3810794.667731232</v>
       </c>
       <c r="K41" t="n">
-        <v>8959491.712452024</v>
+        <v>3107954.515852796</v>
       </c>
       <c r="L41" t="n">
-        <v>7640426.025081904</v>
+        <v>3396127.763692862</v>
       </c>
       <c r="M41" t="n">
-        <v>9531477.466921475</v>
+        <v>3531063.763343423</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Пром</t>
+          <t>Магазин НН Ларина</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>9934420.653098289</v>
+        <v>4592607.627850542</v>
       </c>
       <c r="C42" t="n">
-        <v>8741436.967064764</v>
+        <v>5063420.172678142</v>
       </c>
       <c r="D42" t="n">
-        <v>9690472.746065695</v>
+        <v>4952847.307888828</v>
       </c>
       <c r="E42" t="n">
-        <v>9715843.850320071</v>
+        <v>4754995.118579524</v>
       </c>
       <c r="F42" t="n">
-        <v>10647805.7707436</v>
+        <v>4609654.419566256</v>
       </c>
       <c r="G42" t="n">
-        <v>13594166.35322974</v>
+        <v>3790536.197475875</v>
       </c>
       <c r="H42" t="n">
-        <v>8179547.305921832</v>
+        <v>4141414.046777295</v>
       </c>
       <c r="I42" t="n">
-        <v>10445919.61401988</v>
+        <v>4399304.867208761</v>
       </c>
       <c r="J42" t="n">
-        <v>11246212.16132506</v>
+        <v>4508953.755143929</v>
       </c>
       <c r="K42" t="n">
-        <v>11649748.40765742</v>
+        <v>4560390.907007355</v>
       </c>
       <c r="L42" t="n">
-        <v>9339215.597978022</v>
+        <v>4630676.849477778</v>
       </c>
       <c r="M42" t="n">
-        <v>10445341.40401167</v>
+        <v>4686626.034567086</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Север Авто</t>
+          <t>Магазин СПб Богатырский</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>5740060.459797356</v>
+        <v>3022000.502976063</v>
       </c>
       <c r="C43" t="n">
-        <v>5130526.377573854</v>
+        <v>2760376.868939458</v>
       </c>
       <c r="D43" t="n">
-        <v>5962865.947474579</v>
+        <v>3206329.292144259</v>
       </c>
       <c r="E43" t="n">
-        <v>6118219.002261556</v>
+        <v>3308383.800867976</v>
       </c>
       <c r="F43" t="n">
-        <v>5821310.97081198</v>
+        <v>3650429.255851007</v>
       </c>
       <c r="G43" t="n">
-        <v>7293004.957626889</v>
+        <v>2372294.429129736</v>
       </c>
       <c r="H43" t="n">
-        <v>4497749.910391818</v>
+        <v>2301059.288138729</v>
       </c>
       <c r="I43" t="n">
-        <v>5658409.537169766</v>
+        <v>3402205.237224873</v>
       </c>
       <c r="J43" t="n">
-        <v>6459375.441241411</v>
+        <v>3503299.942143524</v>
       </c>
       <c r="K43" t="n">
-        <v>6267925.828128584</v>
+        <v>3339092.152846662</v>
       </c>
       <c r="L43" t="n">
-        <v>5097971.116415435</v>
+        <v>3505311.82746931</v>
       </c>
       <c r="M43" t="n">
-        <v>5672681.816846349</v>
+        <v>3481341.136727672</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Юг Авто</t>
+          <t>Магазин СПб Софийская</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>12946409.68843142</v>
+        <v>5378217.184794134</v>
       </c>
       <c r="C44" t="n">
-        <v>14403581.20935727</v>
+        <v>6360215.461304905</v>
       </c>
       <c r="D44" t="n">
-        <v>14116546.7837835</v>
+        <v>5763273.937524339</v>
       </c>
       <c r="E44" t="n">
-        <v>14137179.99467256</v>
+        <v>5891261.485223607</v>
       </c>
       <c r="F44" t="n">
-        <v>13126407.55793754</v>
+        <v>6749735.525942279</v>
       </c>
       <c r="G44" t="n">
-        <v>14680253.48269274</v>
+        <v>5331465.841548243</v>
       </c>
       <c r="H44" t="n">
-        <v>12300602.44184761</v>
+        <v>5541243.591109407</v>
       </c>
       <c r="I44" t="n">
-        <v>15589588.75467805</v>
+        <v>6550610.005077365</v>
       </c>
       <c r="J44" t="n">
-        <v>14047345.63638366</v>
+        <v>5779542.101337501</v>
       </c>
       <c r="K44" t="n">
-        <v>11982258.1568499</v>
+        <v>5505831.776524154</v>
       </c>
       <c r="L44" t="n">
-        <v>13226539.34260263</v>
+        <v>5854246.18047827</v>
       </c>
       <c r="M44" t="n">
-        <v>12155293.62313529</v>
+        <v>6580409.299351752</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>ОПП Сургут</t>
+          <t>Магазин СПб Энергетиков</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>6409179.972624131</v>
+        <v>3163272.129091191</v>
       </c>
       <c r="C45" t="n">
-        <v>5186490.905198185</v>
+        <v>3567028.230803492</v>
       </c>
       <c r="D45" t="n">
-        <v>6039401.192998581</v>
+        <v>3075794.344346838</v>
       </c>
       <c r="E45" t="n">
-        <v>5814253.265506905</v>
+        <v>3316331.32364822</v>
       </c>
       <c r="F45" t="n">
-        <v>6330849.626872094</v>
+        <v>3477330.604995874</v>
       </c>
       <c r="G45" t="n">
-        <v>7626890.487155669</v>
+        <v>2720545.475149533</v>
       </c>
       <c r="H45" t="n">
-        <v>6056093.398364616</v>
+        <v>2941392.394341391</v>
       </c>
       <c r="I45" t="n">
-        <v>6957520.566437961</v>
+        <v>3377585.343755021</v>
       </c>
       <c r="J45" t="n">
-        <v>6800822.862529232</v>
+        <v>3623724.100913952</v>
       </c>
       <c r="K45" t="n">
-        <v>5881633.868486913</v>
+        <v>3447368.714328473</v>
       </c>
       <c r="L45" t="n">
-        <v>6025234.42623892</v>
+        <v>3155559.147010745</v>
       </c>
       <c r="M45" t="n">
-        <v>5932607.653418785</v>
+        <v>3558400.17159474</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>ОПП Хабаровск</t>
+          <t>Магазин Сургут</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>13111000.22824381</v>
+        <v>2309685.262416713</v>
       </c>
       <c r="C46" t="n">
-        <v>12805817.452005</v>
+        <v>2495712.395464859</v>
       </c>
       <c r="D46" t="n">
-        <v>10720036.14283548</v>
+        <v>2655487.60145149</v>
       </c>
       <c r="E46" t="n">
-        <v>10456014.24754786</v>
+        <v>2074249.249977998</v>
       </c>
       <c r="F46" t="n">
-        <v>12244618.15794444</v>
+        <v>2320345.360787895</v>
       </c>
       <c r="G46" t="n">
-        <v>15073924.00835701</v>
+        <v>2012727.495002232</v>
       </c>
       <c r="H46" t="n">
-        <v>11153757.6721919</v>
+        <v>2129877.800376844</v>
       </c>
       <c r="I46" t="n">
-        <v>15303828.00687315</v>
+        <v>3032604.041205639</v>
       </c>
       <c r="J46" t="n">
-        <v>14992750.31100108</v>
+        <v>2202554.529700445</v>
       </c>
       <c r="K46" t="n">
-        <v>13997278.76890494</v>
+        <v>2269629.847774888</v>
       </c>
       <c r="L46" t="n">
-        <v>12386525.91291261</v>
+        <v>2247230.836470284</v>
       </c>
       <c r="M46" t="n">
-        <v>14270783.86090996</v>
+        <v>2274342.523199842</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Магазин Владивосток</t>
+          <t>Магазин Сургут 2</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>2203578.465622755</v>
+        <v>1772411.052566957</v>
       </c>
       <c r="C47" t="n">
-        <v>2195326.414714632</v>
+        <v>1728125.834223445</v>
       </c>
       <c r="D47" t="n">
-        <v>2222491.075837371</v>
+        <v>1806610.56143903</v>
       </c>
       <c r="E47" t="n">
-        <v>2176293.421869173</v>
+        <v>1704903.715485221</v>
       </c>
       <c r="F47" t="n">
-        <v>2365268.528232128</v>
+        <v>1718668.322148923</v>
       </c>
       <c r="G47" t="n">
-        <v>2542856.19834487</v>
+        <v>1757940.993948247</v>
       </c>
       <c r="H47" t="n">
-        <v>2368288.195353983</v>
+        <v>1799002.675711056</v>
       </c>
       <c r="I47" t="n">
-        <v>2540198.853653757</v>
+        <v>1903664.29924379</v>
       </c>
       <c r="J47" t="n">
-        <v>2914787.081263885</v>
+        <v>2547089.838369589</v>
       </c>
       <c r="K47" t="n">
-        <v>3191572.928364326</v>
+        <v>2981264.724845676</v>
       </c>
       <c r="L47" t="n">
-        <v>3194501.40848832</v>
+        <v>2686301.78418476</v>
       </c>
       <c r="M47" t="n">
-        <v>3621762.259530926</v>
+        <v>2980131.490892855</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Магазин Воронеж</t>
+          <t>Магазин Хабаровск Индустриальный</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>659893.6023744906</v>
+        <v>5293659.083501053</v>
       </c>
       <c r="C48" t="n">
-        <v>670802.6326105552</v>
+        <v>5785405.893985587</v>
       </c>
       <c r="D48" t="n">
-        <v>842567.7489539215</v>
+        <v>5887371.102407197</v>
       </c>
       <c r="E48" t="n">
-        <v>770350.0207447691</v>
+        <v>5637709.805374743</v>
       </c>
       <c r="F48" t="n">
-        <v>810093.0631018203</v>
+        <v>5843816.344411728</v>
       </c>
       <c r="G48" t="n">
-        <v>1077317.199625353</v>
+        <v>5777688.792594381</v>
       </c>
       <c r="H48" t="n">
-        <v>926963.6567783597</v>
+        <v>5918675.935109279</v>
       </c>
       <c r="I48" t="n">
-        <v>989162.2550376907</v>
+        <v>6004260.521678821</v>
       </c>
       <c r="J48" t="n">
-        <v>852111.3905345956</v>
+        <v>6414966.552644727</v>
       </c>
       <c r="K48" t="n">
-        <v>1295156.747990976</v>
+        <v>6145611.295858738</v>
       </c>
       <c r="L48" t="n">
-        <v>1016360.638173344</v>
+        <v>5986044.206468463</v>
       </c>
       <c r="M48" t="n">
-        <v>895728.0832222378</v>
+        <v>6344289.60973894</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Магазин Казань / ПВЗ Казань</t>
+          <t>ПВЗ Инфор</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>730996.2817333845</v>
+        <v>504912.3723831456</v>
       </c>
       <c r="C49" t="n">
-        <v>680611.9639367753</v>
+        <v>753431.5983323001</v>
       </c>
       <c r="D49" t="n">
-        <v>862649.1168605678</v>
+        <v>509069.0325074426</v>
       </c>
       <c r="E49" t="n">
-        <v>933799.2448866961</v>
+        <v>541341.8123462469</v>
       </c>
       <c r="F49" t="n">
-        <v>1029953.017336111</v>
+        <v>622933.8402880152</v>
       </c>
       <c r="G49" t="n">
-        <v>957962.3089543227</v>
+        <v>487962.4672367001</v>
       </c>
       <c r="H49" t="n">
-        <v>672946.8517318569</v>
+        <v>655608.2679241617</v>
       </c>
       <c r="I49" t="n">
-        <v>804669.5616617703</v>
+        <v>880639.4178259751</v>
       </c>
       <c r="J49" t="n">
-        <v>997179.6614350958</v>
+        <v>862219.9492341604</v>
       </c>
       <c r="K49" t="n">
-        <v>858138.7451244423</v>
+        <v>662523.4787236809</v>
       </c>
       <c r="L49" t="n">
-        <v>725355.9905976753</v>
+        <v>734922.7999443364</v>
       </c>
       <c r="M49" t="n">
-        <v>824625.6831643088</v>
+        <v>725434.9663551573</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Магазин Кемерово</t>
+          <t>ПВЗ СПб 4 (Маршал на Северном)</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1678915.483974912</v>
+        <v>2902642.812020527</v>
       </c>
       <c r="C50" t="n">
-        <v>1594560.424772107</v>
+        <v>2770874.912580451</v>
       </c>
       <c r="D50" t="n">
-        <v>1980440.425036151</v>
+        <v>2800429.943986552</v>
       </c>
       <c r="E50" t="n">
-        <v>1942138.93321942</v>
+        <v>2882588.56293272</v>
       </c>
       <c r="F50" t="n">
-        <v>1724619.541156203</v>
+        <v>3017855.261074822</v>
       </c>
       <c r="G50" t="n">
-        <v>1989777.598500724</v>
+        <v>2787168.426530355</v>
       </c>
       <c r="H50" t="n">
-        <v>1577767.48382694</v>
+        <v>2944072.824338187</v>
       </c>
       <c r="I50" t="n">
-        <v>1710795.851660184</v>
+        <v>3102647.888524204</v>
       </c>
       <c r="J50" t="n">
-        <v>1988626.154722317</v>
+        <v>3369969.944778801</v>
       </c>
       <c r="K50" t="n">
-        <v>2089763.139847956</v>
+        <v>3174183.609568809</v>
       </c>
       <c r="L50" t="n">
-        <v>1956739.111929704</v>
+        <v>3711735.727206151</v>
       </c>
       <c r="M50" t="n">
-        <v>1992701.349659573</v>
+        <v>3481504.723060844</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Магазин Краснодар</t>
+          <t>ПВЗ СПб 5 (Маршал на Жукова)</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>2558517.624358033</v>
+        <v>2935856.675686872</v>
       </c>
       <c r="C51" t="n">
-        <v>2911994.502222865</v>
+        <v>3088824.062876684</v>
       </c>
       <c r="D51" t="n">
-        <v>2605931.221178748</v>
+        <v>3171540.457461327</v>
       </c>
       <c r="E51" t="n">
-        <v>3074397.3072084</v>
+        <v>3191708.721109365</v>
       </c>
       <c r="F51" t="n">
-        <v>2816044.622596647</v>
+        <v>3185253.648401006</v>
       </c>
       <c r="G51" t="n">
-        <v>2800622.953258807</v>
+        <v>3003297.145979181</v>
       </c>
       <c r="H51" t="n">
-        <v>2363529.05705689</v>
+        <v>3270127.4826145</v>
       </c>
       <c r="I51" t="n">
-        <v>2928013.276929768</v>
+        <v>3297342.054729503</v>
       </c>
       <c r="J51" t="n">
-        <v>2933161.334891618</v>
+        <v>3663517.348740789</v>
       </c>
       <c r="K51" t="n">
-        <v>2737180.563269028</v>
+        <v>3555892.976423959</v>
       </c>
       <c r="L51" t="n">
-        <v>2970550.664166181</v>
+        <v>3568234.972012805</v>
       </c>
       <c r="M51" t="n">
-        <v>3307502.876475344</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Красноярск 1</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>3245939.639992019</v>
-      </c>
-      <c r="C52" t="n">
-        <v>3616649.582530115</v>
-      </c>
-      <c r="D52" t="n">
-        <v>3001576.673116631</v>
-      </c>
-      <c r="E52" t="n">
-        <v>3731249.221036991</v>
-      </c>
-      <c r="F52" t="n">
-        <v>3359546.36024214</v>
-      </c>
-      <c r="G52" t="n">
-        <v>3728922.503394707</v>
-      </c>
-      <c r="H52" t="n">
-        <v>3380608.249905955</v>
-      </c>
-      <c r="I52" t="n">
-        <v>3264703.054008509</v>
-      </c>
-      <c r="J52" t="n">
-        <v>3462714.749260294</v>
-      </c>
-      <c r="K52" t="n">
-        <v>3494831.50055204</v>
-      </c>
-      <c r="L52" t="n">
-        <v>3696773.604496341</v>
-      </c>
-      <c r="M52" t="n">
-        <v>3769950.967846439</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК 3</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>1211243.241745278</v>
-      </c>
-      <c r="C53" t="n">
-        <v>1276225.035198334</v>
-      </c>
-      <c r="D53" t="n">
-        <v>1820524.275317704</v>
-      </c>
-      <c r="E53" t="n">
-        <v>2347697.467166327</v>
-      </c>
-      <c r="F53" t="n">
-        <v>2212937.740728898</v>
-      </c>
-      <c r="G53" t="n">
-        <v>2098696.655868231</v>
-      </c>
-      <c r="H53" t="n">
-        <v>1978254.599189766</v>
-      </c>
-      <c r="I53" t="n">
-        <v>2786698.696977133</v>
-      </c>
-      <c r="J53" t="n">
-        <v>3161430.423788607</v>
-      </c>
-      <c r="K53" t="n">
-        <v>2644587.923680178</v>
-      </c>
-      <c r="L53" t="n">
-        <v>2522839.085037281</v>
-      </c>
-      <c r="M53" t="n">
-        <v>2713113.511394821</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК Балашиха</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>1487203.421178703</v>
-      </c>
-      <c r="C54" t="n">
-        <v>1382019.831565597</v>
-      </c>
-      <c r="D54" t="n">
-        <v>1206716.145255669</v>
-      </c>
-      <c r="E54" t="n">
-        <v>1822317.988175469</v>
-      </c>
-      <c r="F54" t="n">
-        <v>1139264.56198797</v>
-      </c>
-      <c r="G54" t="n">
-        <v>1208081.308416902</v>
-      </c>
-      <c r="H54" t="n">
-        <v>1432456.616273302</v>
-      </c>
-      <c r="I54" t="n">
-        <v>1850526.092308621</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1643673.915888064</v>
-      </c>
-      <c r="K54" t="n">
-        <v>1806049.555856382</v>
-      </c>
-      <c r="L54" t="n">
-        <v>1664381.211817516</v>
-      </c>
-      <c r="M54" t="n">
-        <v>1970369.608028828</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК Кунцево</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>2951150.285697588</v>
-      </c>
-      <c r="C55" t="n">
-        <v>3600532.368521388</v>
-      </c>
-      <c r="D55" t="n">
-        <v>3192787.200414444</v>
-      </c>
-      <c r="E55" t="n">
-        <v>4431220.698167445</v>
-      </c>
-      <c r="F55" t="n">
-        <v>3648276.434072244</v>
-      </c>
-      <c r="G55" t="n">
-        <v>3238779.688594143</v>
-      </c>
-      <c r="H55" t="n">
-        <v>2829673.052073585</v>
-      </c>
-      <c r="I55" t="n">
-        <v>3028267.872872148</v>
-      </c>
-      <c r="J55" t="n">
-        <v>4402960.052258082</v>
-      </c>
-      <c r="K55" t="n">
-        <v>3697057.10075383</v>
-      </c>
-      <c r="L55" t="n">
-        <v>3215398.773493949</v>
-      </c>
-      <c r="M55" t="n">
-        <v>3425488.590059057</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Мурманск</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>3995569.626632031</v>
-      </c>
-      <c r="C56" t="n">
-        <v>3930753.264343471</v>
-      </c>
-      <c r="D56" t="n">
-        <v>4690292.81981926</v>
-      </c>
-      <c r="E56" t="n">
-        <v>4246012.583748795</v>
-      </c>
-      <c r="F56" t="n">
-        <v>3701574.967156992</v>
-      </c>
-      <c r="G56" t="n">
-        <v>4304978.110604547</v>
-      </c>
-      <c r="H56" t="n">
-        <v>3230522.986714695</v>
-      </c>
-      <c r="I56" t="n">
-        <v>4112543.589231648</v>
-      </c>
-      <c r="J56" t="n">
-        <v>3915324.037432303</v>
-      </c>
-      <c r="K56" t="n">
-        <v>4215257.416945897</v>
-      </c>
-      <c r="L56" t="n">
-        <v>4611033.609333926</v>
-      </c>
-      <c r="M56" t="n">
-        <v>4295672.469909763</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Нижневартовск</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>5653489.689191839</v>
-      </c>
-      <c r="C57" t="n">
-        <v>5377111.434773104</v>
-      </c>
-      <c r="D57" t="n">
-        <v>5732688.863904732</v>
-      </c>
-      <c r="E57" t="n">
-        <v>6307390.814110826</v>
-      </c>
-      <c r="F57" t="n">
-        <v>5240167.484393717</v>
-      </c>
-      <c r="G57" t="n">
-        <v>5413838.609119395</v>
-      </c>
-      <c r="H57" t="n">
-        <v>5000980.162138976</v>
-      </c>
-      <c r="I57" t="n">
-        <v>5306414.971390808</v>
-      </c>
-      <c r="J57" t="n">
-        <v>5806565.624344548</v>
-      </c>
-      <c r="K57" t="n">
-        <v>6135380.719858607</v>
-      </c>
-      <c r="L57" t="n">
-        <v>6273159.565551257</v>
-      </c>
-      <c r="M57" t="n">
-        <v>6166096.982697402</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НКЗ</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>5432808.153292584</v>
-      </c>
-      <c r="C58" t="n">
-        <v>5736954.453646409</v>
-      </c>
-      <c r="D58" t="n">
-        <v>5764463.271381334</v>
-      </c>
-      <c r="E58" t="n">
-        <v>6041027.974850758</v>
-      </c>
-      <c r="F58" t="n">
-        <v>5760062.962989089</v>
-      </c>
-      <c r="G58" t="n">
-        <v>5998615.367085019</v>
-      </c>
-      <c r="H58" t="n">
-        <v>5054781.218743902</v>
-      </c>
-      <c r="I58" t="n">
-        <v>5325626.148314491</v>
-      </c>
-      <c r="J58" t="n">
-        <v>6198025.286377111</v>
-      </c>
-      <c r="K58" t="n">
-        <v>6044416.532365741</v>
-      </c>
-      <c r="L58" t="n">
-        <v>6006046.680542519</v>
-      </c>
-      <c r="M58" t="n">
-        <v>6315399.078330251</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НН Бурнаковский</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>3562839.413482439</v>
-      </c>
-      <c r="C59" t="n">
-        <v>3301595.18395037</v>
-      </c>
-      <c r="D59" t="n">
-        <v>3538312.194605512</v>
-      </c>
-      <c r="E59" t="n">
-        <v>3553056.869678546</v>
-      </c>
-      <c r="F59" t="n">
-        <v>3153123.075512112</v>
-      </c>
-      <c r="G59" t="n">
-        <v>3951570.183940962</v>
-      </c>
-      <c r="H59" t="n">
-        <v>3529665.668512485</v>
-      </c>
-      <c r="I59" t="n">
-        <v>2747915.857339486</v>
-      </c>
-      <c r="J59" t="n">
-        <v>3473891.885719341</v>
-      </c>
-      <c r="K59" t="n">
-        <v>3969573.565558804</v>
-      </c>
-      <c r="L59" t="n">
-        <v>3284570.029195796</v>
-      </c>
-      <c r="M59" t="n">
-        <v>3681850.135338226</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НН Ларина</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>4606105.967708089</v>
-      </c>
-      <c r="C60" t="n">
-        <v>4832000.97356015</v>
-      </c>
-      <c r="D60" t="n">
-        <v>5291949.197950104</v>
-      </c>
-      <c r="E60" t="n">
-        <v>5137473.059458419</v>
-      </c>
-      <c r="F60" t="n">
-        <v>4949494.850774619</v>
-      </c>
-      <c r="G60" t="n">
-        <v>4811336.990394436</v>
-      </c>
-      <c r="H60" t="n">
-        <v>3948714.670607808</v>
-      </c>
-      <c r="I60" t="n">
-        <v>4329763.576323955</v>
-      </c>
-      <c r="J60" t="n">
-        <v>4563865.736361137</v>
-      </c>
-      <c r="K60" t="n">
-        <v>4704327.741970263</v>
-      </c>
-      <c r="L60" t="n">
-        <v>4768285.509094123</v>
-      </c>
-      <c r="M60" t="n">
-        <v>4851875.394962628</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Богатырский</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>2943361.28610119</v>
-      </c>
-      <c r="C61" t="n">
-        <v>2895946.526799526</v>
-      </c>
-      <c r="D61" t="n">
-        <v>2615229.587092916</v>
-      </c>
-      <c r="E61" t="n">
-        <v>3065988.402618874</v>
-      </c>
-      <c r="F61" t="n">
-        <v>3164211.108964672</v>
-      </c>
-      <c r="G61" t="n">
-        <v>3499031.168416203</v>
-      </c>
-      <c r="H61" t="n">
-        <v>2231679.539910388</v>
-      </c>
-      <c r="I61" t="n">
-        <v>2159092.984669489</v>
-      </c>
-      <c r="J61" t="n">
-        <v>3256399.920885844</v>
-      </c>
-      <c r="K61" t="n">
-        <v>3359450.862716806</v>
-      </c>
-      <c r="L61" t="n">
-        <v>3193073.515293099</v>
-      </c>
-      <c r="M61" t="n">
-        <v>3366351.14901242</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Софийская</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>6860433.727064542</v>
-      </c>
-      <c r="C62" t="n">
-        <v>6127156.713202162</v>
-      </c>
-      <c r="D62" t="n">
-        <v>6954912.982055984</v>
-      </c>
-      <c r="E62" t="n">
-        <v>6461707.724684201</v>
-      </c>
-      <c r="F62" t="n">
-        <v>6448028.715795385</v>
-      </c>
-      <c r="G62" t="n">
-        <v>7229621.707880856</v>
-      </c>
-      <c r="H62" t="n">
-        <v>5913606.368995676</v>
-      </c>
-      <c r="I62" t="n">
-        <v>6148754.340141851</v>
-      </c>
-      <c r="J62" t="n">
-        <v>6908188.435246978</v>
-      </c>
-      <c r="K62" t="n">
-        <v>6361176.041188728</v>
-      </c>
-      <c r="L62" t="n">
-        <v>6158245.243557177</v>
-      </c>
-      <c r="M62" t="n">
-        <v>6583954.65673455</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Энергетиков</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>3410415.963606141</v>
-      </c>
-      <c r="C63" t="n">
-        <v>3333907.47893672</v>
-      </c>
-      <c r="D63" t="n">
-        <v>3745324.664980017</v>
-      </c>
-      <c r="E63" t="n">
-        <v>3248554.201580423</v>
-      </c>
-      <c r="F63" t="n">
-        <v>3475824.4161345</v>
-      </c>
-      <c r="G63" t="n">
-        <v>3592126.851294686</v>
-      </c>
-      <c r="H63" t="n">
-        <v>2911983.770267969</v>
-      </c>
-      <c r="I63" t="n">
-        <v>3134124.54525195</v>
-      </c>
-      <c r="J63" t="n">
-        <v>3538004.868872938</v>
-      </c>
-      <c r="K63" t="n">
-        <v>3763931.659758506</v>
-      </c>
-      <c r="L63" t="n">
-        <v>3602982.973994277</v>
-      </c>
-      <c r="M63" t="n">
-        <v>3363671.55132731</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Сургут</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>2151158.411275173</v>
-      </c>
-      <c r="C64" t="n">
-        <v>2210710.806458588</v>
-      </c>
-      <c r="D64" t="n">
-        <v>2425570.566874199</v>
-      </c>
-      <c r="E64" t="n">
-        <v>2574681.88389121</v>
-      </c>
-      <c r="F64" t="n">
-        <v>1991810.747196736</v>
-      </c>
-      <c r="G64" t="n">
-        <v>2221765.529922347</v>
-      </c>
-      <c r="H64" t="n">
-        <v>1929383.693296376</v>
-      </c>
-      <c r="I64" t="n">
-        <v>2019839.337187936</v>
-      </c>
-      <c r="J64" t="n">
-        <v>3012216.4696548</v>
-      </c>
-      <c r="K64" t="n">
-        <v>2104309.055442153</v>
-      </c>
-      <c r="L64" t="n">
-        <v>2153346.561083851</v>
-      </c>
-      <c r="M64" t="n">
-        <v>2154471.96144326</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Сургут 2</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>1523884.53761591</v>
-      </c>
-      <c r="C65" t="n">
-        <v>1600371.101240729</v>
-      </c>
-      <c r="D65" t="n">
-        <v>1568754.77066051</v>
-      </c>
-      <c r="E65" t="n">
-        <v>1619315.445557903</v>
-      </c>
-      <c r="F65" t="n">
-        <v>1555029.896525094</v>
-      </c>
-      <c r="G65" t="n">
-        <v>1563628.38774226</v>
-      </c>
-      <c r="H65" t="n">
-        <v>1588497.177536202</v>
-      </c>
-      <c r="I65" t="n">
-        <v>1614275.25052272</v>
-      </c>
-      <c r="J65" t="n">
-        <v>1680299.861427998</v>
-      </c>
-      <c r="K65" t="n">
-        <v>2358381.931769348</v>
-      </c>
-      <c r="L65" t="n">
-        <v>2845683.501057433</v>
-      </c>
-      <c r="M65" t="n">
-        <v>2569300.217499624</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Хабаровск Индустриальный</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>4720804.084003621</v>
-      </c>
-      <c r="C66" t="n">
-        <v>4963680.574837375</v>
-      </c>
-      <c r="D66" t="n">
-        <v>5476432.973701882</v>
-      </c>
-      <c r="E66" t="n">
-        <v>5563601.383819213</v>
-      </c>
-      <c r="F66" t="n">
-        <v>5282930.613788781</v>
-      </c>
-      <c r="G66" t="n">
-        <v>5527448.617769355</v>
-      </c>
-      <c r="H66" t="n">
-        <v>5486483.854572163</v>
-      </c>
-      <c r="I66" t="n">
-        <v>5578820.236135839</v>
-      </c>
-      <c r="J66" t="n">
-        <v>5720743.147500993</v>
-      </c>
-      <c r="K66" t="n">
-        <v>6173028.59656255</v>
-      </c>
-      <c r="L66" t="n">
-        <v>5835589.877827977</v>
-      </c>
-      <c r="M66" t="n">
-        <v>5679628.937668364</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ Инфор</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>804055.5607117706</v>
-      </c>
-      <c r="C67" t="n">
-        <v>729618.1413975038</v>
-      </c>
-      <c r="D67" t="n">
-        <v>965873.8283905248</v>
-      </c>
-      <c r="E67" t="n">
-        <v>716524.9088336455</v>
-      </c>
-      <c r="F67" t="n">
-        <v>742869.0085546235</v>
-      </c>
-      <c r="G67" t="n">
-        <v>838069.1962749755</v>
-      </c>
-      <c r="H67" t="n">
-        <v>682711.2736318068</v>
-      </c>
-      <c r="I67" t="n">
-        <v>869726.5044078864</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1087633.392395149</v>
-      </c>
-      <c r="K67" t="n">
-        <v>1057813.842167335</v>
-      </c>
-      <c r="L67" t="n">
-        <v>850322.6559776681</v>
-      </c>
-      <c r="M67" t="n">
-        <v>936152.7702698255</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ СПб 4 (Маршал на Северном)</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>2958389.861649483</v>
-      </c>
-      <c r="C68" t="n">
-        <v>3089050.727894635</v>
-      </c>
-      <c r="D68" t="n">
-        <v>2940630.331179987</v>
-      </c>
-      <c r="E68" t="n">
-        <v>3007998.039485949</v>
-      </c>
-      <c r="F68" t="n">
-        <v>3072171.558749979</v>
-      </c>
-      <c r="G68" t="n">
-        <v>3193442.539053414</v>
-      </c>
-      <c r="H68" t="n">
-        <v>2975931.18619479</v>
-      </c>
-      <c r="I68" t="n">
-        <v>3165742.197390676</v>
-      </c>
-      <c r="J68" t="n">
-        <v>3320463.994176279</v>
-      </c>
-      <c r="K68" t="n">
-        <v>3633918.904107051</v>
-      </c>
-      <c r="L68" t="n">
-        <v>3344716.802146269</v>
-      </c>
-      <c r="M68" t="n">
-        <v>3958139.222478588</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ СПб 5 (Маршал на Жукова)</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>3020922.002721719</v>
-      </c>
-      <c r="C69" t="n">
-        <v>3090388.453129663</v>
-      </c>
-      <c r="D69" t="n">
-        <v>3341564.403452325</v>
-      </c>
-      <c r="E69" t="n">
-        <v>3379018.476320872</v>
-      </c>
-      <c r="F69" t="n">
-        <v>3458657.118800287</v>
-      </c>
-      <c r="G69" t="n">
-        <v>3429392.959055777</v>
-      </c>
-      <c r="H69" t="n">
-        <v>3247508.276559435</v>
-      </c>
-      <c r="I69" t="n">
-        <v>3534767.931537692</v>
-      </c>
-      <c r="J69" t="n">
-        <v>3616077.974429848</v>
-      </c>
-      <c r="K69" t="n">
-        <v>3975379.553850186</v>
-      </c>
-      <c r="L69" t="n">
-        <v>3886691.52623426</v>
-      </c>
-      <c r="M69" t="n">
-        <v>3869448.709618881</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Ковригин  (Kz)</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>7594483.56423981</v>
-      </c>
-      <c r="C70" t="n">
-        <v>6261895.791949005</v>
-      </c>
-      <c r="D70" t="n">
-        <v>8435293.785408769</v>
-      </c>
-      <c r="E70" t="n">
-        <v>8751139.001111466</v>
-      </c>
-      <c r="F70" t="n">
-        <v>8188759.338246783</v>
-      </c>
-      <c r="G70" t="n">
-        <v>7918556.383844712</v>
-      </c>
-      <c r="H70" t="n">
-        <v>7359063.89336286</v>
-      </c>
-      <c r="I70" t="n">
-        <v>6918138.990001618</v>
-      </c>
-      <c r="J70" t="n">
-        <v>5604210.911107471</v>
-      </c>
-      <c r="K70" t="n">
-        <v>6495290.125583439</v>
-      </c>
-      <c r="L70" t="n">
-        <v>5906051.09395902</v>
-      </c>
-      <c r="M70" t="n">
-        <v>5695008.665196264</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Концевой</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>17872919.53319257</v>
-      </c>
-      <c r="C71" t="n">
-        <v>19027349.22271807</v>
-      </c>
-      <c r="D71" t="n">
-        <v>20136200.09917432</v>
-      </c>
-      <c r="E71" t="n">
-        <v>20467508.69502588</v>
-      </c>
-      <c r="F71" t="n">
-        <v>22672628.37213935</v>
-      </c>
-      <c r="G71" t="n">
-        <v>42972316.02266496</v>
-      </c>
-      <c r="H71" t="n">
-        <v>13278068.94502285</v>
-      </c>
-      <c r="I71" t="n">
-        <v>24721910.55646629</v>
-      </c>
-      <c r="J71" t="n">
-        <v>24030652.57006136</v>
-      </c>
-      <c r="K71" t="n">
-        <v>26650644.30642426</v>
-      </c>
-      <c r="L71" t="n">
-        <v>30442316.25466691</v>
-      </c>
-      <c r="M71" t="n">
-        <v>29459738.32129125</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Мараев (АлРоса)</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>4470996.578587335</v>
-      </c>
-      <c r="C72" t="n">
-        <v>2898383.687351563</v>
-      </c>
-      <c r="D72" t="n">
-        <v>7653711.457729381</v>
-      </c>
-      <c r="E72" t="n">
-        <v>3177952.270715852</v>
-      </c>
-      <c r="F72" t="n">
-        <v>7510424.845341601</v>
-      </c>
-      <c r="G72" t="n">
-        <v>4966963.330919668</v>
-      </c>
-      <c r="H72" t="n">
-        <v>3988831.051025522</v>
-      </c>
-      <c r="I72" t="n">
-        <v>9662110.21370348</v>
-      </c>
-      <c r="J72" t="n">
-        <v>11207177.30848484</v>
-      </c>
-      <c r="K72" t="n">
-        <v>6699468.551371659</v>
-      </c>
-      <c r="L72" t="n">
-        <v>9645506.888030181</v>
-      </c>
-      <c r="M72" t="n">
-        <v>4227244.982309895</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Мищенко (МетИнв)</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>7601509.788411338</v>
-      </c>
-      <c r="C73" t="n">
-        <v>8280336.333560849</v>
-      </c>
-      <c r="D73" t="n">
-        <v>7867152.537496936</v>
-      </c>
-      <c r="E73" t="n">
-        <v>9405860.729065327</v>
-      </c>
-      <c r="F73" t="n">
-        <v>7663236.921741426</v>
-      </c>
-      <c r="G73" t="n">
-        <v>8224717.538454121</v>
-      </c>
-      <c r="H73" t="n">
-        <v>7627258.395619323</v>
-      </c>
-      <c r="I73" t="n">
-        <v>9102637.394217648</v>
-      </c>
-      <c r="J73" t="n">
-        <v>10125435.86581576</v>
-      </c>
-      <c r="K73" t="n">
-        <v>9466223.299114628</v>
-      </c>
-      <c r="L73" t="n">
-        <v>8772150.893698063</v>
-      </c>
-      <c r="M73" t="n">
-        <v>8276535.522025183</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Попов</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>19651899.51567224</v>
-      </c>
-      <c r="C74" t="n">
-        <v>15797987.69496118</v>
-      </c>
-      <c r="D74" t="n">
-        <v>17579130.81062182</v>
-      </c>
-      <c r="E74" t="n">
-        <v>17446161.65432943</v>
-      </c>
-      <c r="F74" t="n">
-        <v>17743205.55467721</v>
-      </c>
-      <c r="G74" t="n">
-        <v>24657051.55006233</v>
-      </c>
-      <c r="H74" t="n">
-        <v>12944087.24737433</v>
-      </c>
-      <c r="I74" t="n">
-        <v>21056651.30579626</v>
-      </c>
-      <c r="J74" t="n">
-        <v>21289573.0703105</v>
-      </c>
-      <c r="K74" t="n">
-        <v>22329203.08298412</v>
-      </c>
-      <c r="L74" t="n">
-        <v>21893307.35797899</v>
-      </c>
-      <c r="M74" t="n">
-        <v>21270308.18513589</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Филиппов</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>25642304.33296368</v>
-      </c>
-      <c r="C75" t="n">
-        <v>26208448.63798961</v>
-      </c>
-      <c r="D75" t="n">
-        <v>25106153.08059695</v>
-      </c>
-      <c r="E75" t="n">
-        <v>24979921.943726</v>
-      </c>
-      <c r="F75" t="n">
-        <v>25385317.25988489</v>
-      </c>
-      <c r="G75" t="n">
-        <v>35524067.07495723</v>
-      </c>
-      <c r="H75" t="n">
-        <v>22424459.36738059</v>
-      </c>
-      <c r="I75" t="n">
-        <v>21614351.30980314</v>
-      </c>
-      <c r="J75" t="n">
-        <v>27303644.85436517</v>
-      </c>
-      <c r="K75" t="n">
-        <v>27112160.32764157</v>
-      </c>
-      <c r="L75" t="n">
-        <v>30593059.0993205</v>
-      </c>
-      <c r="M75" t="n">
-        <v>33071269.33531871</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Шугай (Русал)</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>13317788.20718004</v>
-      </c>
-      <c r="C76" t="n">
-        <v>13274049.49090926</v>
-      </c>
-      <c r="D76" t="n">
-        <v>13213617.25210694</v>
-      </c>
-      <c r="E76" t="n">
-        <v>13078408.93520365</v>
-      </c>
-      <c r="F76" t="n">
-        <v>13099311.34758463</v>
-      </c>
-      <c r="G76" t="n">
-        <v>12830009.82203482</v>
-      </c>
-      <c r="H76" t="n">
-        <v>13851942.90968837</v>
-      </c>
-      <c r="I76" t="n">
-        <v>14483680.27138971</v>
-      </c>
-      <c r="J76" t="n">
-        <v>14743808.24991725</v>
-      </c>
-      <c r="K76" t="n">
-        <v>13931704.46493557</v>
-      </c>
-      <c r="L76" t="n">
-        <v>12078333.81733991</v>
-      </c>
-      <c r="M76" t="n">
-        <v>12739739.12962327</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Ясиновер (УГМК)</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>21607409.1690702</v>
-      </c>
-      <c r="C77" t="n">
-        <v>21969270.0842939</v>
-      </c>
-      <c r="D77" t="n">
-        <v>27545570.75752363</v>
-      </c>
-      <c r="E77" t="n">
-        <v>33372610.01875362</v>
-      </c>
-      <c r="F77" t="n">
-        <v>34355808.53606319</v>
-      </c>
-      <c r="G77" t="n">
-        <v>27449950.8545737</v>
-      </c>
-      <c r="H77" t="n">
-        <v>27222963.31719392</v>
-      </c>
-      <c r="I77" t="n">
-        <v>31551888.69237759</v>
-      </c>
-      <c r="J77" t="n">
-        <v>31599418.46191071</v>
-      </c>
-      <c r="K77" t="n">
-        <v>33808751.40767302</v>
-      </c>
-      <c r="L77" t="n">
-        <v>32909536.70666031</v>
-      </c>
-      <c r="M77" t="n">
-        <v>40774020.43340255</v>
+        <v>3639436.557177888</v>
       </c>
     </row>
   </sheetData>
